--- a/Data/Excel/nutrients_excelfile_id(json combined).xlsx
+++ b/Data/Excel/nutrients_excelfile_id(json combined).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deliastorch/Documents/GitHub/ElmFoodProject/Data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F6D4C6-B6E3-0F4B-91FD-8E5D6AE724B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C477887F-C771-8840-8CA1-8B34A47D6956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{93AC367F-D658-7D44-A79B-B78E525AB0FA}"/>
   </bookViews>
